--- a/campus-room-finder/rooms.xlsx
+++ b/campus-room-finder/rooms.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\campus-room-finder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="131">
   <si>
     <t>room_id</t>
   </si>
@@ -34,62 +39,386 @@
     <t>lon</t>
   </si>
   <si>
-    <t>CSE-101</t>
-  </si>
-  <si>
-    <t>CSE-202</t>
-  </si>
-  <si>
-    <t>ENG-015</t>
-  </si>
-  <si>
-    <t>LIB-002</t>
-  </si>
-  <si>
-    <t>SCI-110</t>
-  </si>
-  <si>
-    <t>Computer Lab 1</t>
-  </si>
-  <si>
-    <t>AI Seminar Room</t>
-  </si>
-  <si>
-    <t>Mechanical Workshop</t>
-  </si>
-  <si>
-    <t>Reading Hall</t>
-  </si>
-  <si>
-    <t>Physics Lab</t>
-  </si>
-  <si>
-    <t>CSE Block A</t>
-  </si>
-  <si>
-    <t>Engineering B</t>
-  </si>
-  <si>
     <t>Library</t>
   </si>
   <si>
-    <t>Science Block</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Milimani Hall 1</t>
+  </si>
+  <si>
+    <t>Milimani Hall 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kitchen </t>
+  </si>
+  <si>
+    <t>Dinning Hall</t>
+  </si>
+  <si>
+    <t>Assembly Hall</t>
+  </si>
+  <si>
+    <t>Micro Teaching Room</t>
+  </si>
+  <si>
+    <t>House Keeping</t>
+  </si>
+  <si>
+    <t>Christian Union Office</t>
+  </si>
+  <si>
+    <t>Procurement Department</t>
+  </si>
+  <si>
+    <t>Security Department</t>
+  </si>
+  <si>
+    <t>Examination Office</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Directorate Building</t>
+  </si>
+  <si>
+    <t>Lecture Room 8</t>
+  </si>
+  <si>
+    <t>Lecture Room 7</t>
+  </si>
+  <si>
+    <t>Lecture Room 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> School of Hospitality and Tourism Management</t>
+  </si>
+  <si>
+    <t>COD. Hospitalty Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resturant </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hospitality Store</t>
+  </si>
+  <si>
+    <t>SHTM Examination Office</t>
+  </si>
+  <si>
+    <t>Electronics Laborotary</t>
+  </si>
+  <si>
+    <t>Health Unit</t>
+  </si>
+  <si>
+    <t>Library Basement</t>
+  </si>
+  <si>
+    <t>Network Administrator</t>
+  </si>
+  <si>
+    <t>ICT Directorate</t>
+  </si>
+  <si>
+    <t>Odel</t>
+  </si>
+  <si>
+    <t>COD Electrical and Electronic Enginering</t>
+  </si>
+  <si>
+    <t>COD Building and Civil  Enginering</t>
+  </si>
+  <si>
+    <t>ERP Support</t>
+  </si>
+  <si>
+    <t>Gender and Disability Mainstream Department</t>
+  </si>
+  <si>
+    <t>Director, Gender and Disability Mainstream Studies</t>
+  </si>
+  <si>
+    <t>Dean Office</t>
+  </si>
+  <si>
+    <t>School of Education , Humanities and Social Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COD, Humanities </t>
+  </si>
+  <si>
+    <t>Administator , Department of Education and Technnology</t>
+  </si>
+  <si>
+    <t>Administator , Department of humanities and social sciences</t>
+  </si>
+  <si>
+    <t>Tution Block 1</t>
+  </si>
+  <si>
+    <t>TB1_GF1</t>
+  </si>
+  <si>
+    <t>TB1_GF2</t>
+  </si>
+  <si>
+    <t>TB1_GF3</t>
+  </si>
+  <si>
+    <t>TB1_GF4</t>
+  </si>
+  <si>
+    <t>TB1_F1.1</t>
+  </si>
+  <si>
+    <t>TB1_F1.2</t>
+  </si>
+  <si>
+    <t>TB1_F1.3</t>
+  </si>
+  <si>
+    <t>TB1_F1.4</t>
+  </si>
+  <si>
+    <t>TB1_F2.1</t>
+  </si>
+  <si>
+    <t>TB1_F2.2</t>
+  </si>
+  <si>
+    <t>TB1_F2.3</t>
+  </si>
+  <si>
+    <t>TB1_F2.4</t>
+  </si>
+  <si>
+    <t>TB1_F3.1</t>
+  </si>
+  <si>
+    <t>TB1_F3.2</t>
+  </si>
+  <si>
+    <t>TB1_F3.3</t>
+  </si>
+  <si>
+    <t>TB1_F3.4</t>
+  </si>
+  <si>
+    <t>TB1_F4.1</t>
+  </si>
+  <si>
+    <t>TB1_F4.2</t>
+  </si>
+  <si>
+    <t>TB1_F4.3</t>
+  </si>
+  <si>
+    <t>TB1_F4.4</t>
+  </si>
+  <si>
+    <t>Physics Laborotary 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botany Laborotary </t>
+  </si>
+  <si>
+    <t>Science Laborotaries</t>
+  </si>
+  <si>
+    <t>Herbarium</t>
+  </si>
+  <si>
+    <t>Preparotory Room 1</t>
+  </si>
+  <si>
+    <t>Preparotory Room 2</t>
+  </si>
+  <si>
+    <t>Chemistry Laborotary 1</t>
+  </si>
+  <si>
+    <t>Chemistry Laborotary 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical /Biochemistry Laborotary </t>
+  </si>
+  <si>
+    <t>Parasitology Laborotary</t>
+  </si>
+  <si>
+    <t>Hermtology Laborotary</t>
+  </si>
+  <si>
+    <t>Medical Physiology Laborotary</t>
+  </si>
+  <si>
+    <t>Blood Transfusion Lab</t>
+  </si>
+  <si>
+    <t>Microbiology Laborotary</t>
+  </si>
+  <si>
+    <t>Forensics Laborotary</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>Analitical Laborotary</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>school of computing and Information Technology</t>
+  </si>
+  <si>
+    <t>Department of IT</t>
+  </si>
+  <si>
+    <t>Department of Computer Science</t>
+  </si>
+  <si>
+    <t>SCIT Examination Office</t>
+  </si>
+  <si>
+    <t>Medical Skills Lab</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Dean of  SCIT</t>
+  </si>
+  <si>
+    <t>scit staff longer</t>
+  </si>
+  <si>
+    <t>SL1</t>
+  </si>
+  <si>
+    <t>SL2</t>
+  </si>
+  <si>
+    <t>SL3</t>
+  </si>
+  <si>
+    <t>Building Deparment</t>
+  </si>
+  <si>
+    <t>Plumbing Derperment</t>
+  </si>
+  <si>
+    <t>3D lab</t>
+  </si>
+  <si>
+    <t>Mechanical Work Shop 2</t>
+  </si>
+  <si>
+    <t>Wood Work Shop</t>
+  </si>
+  <si>
+    <t>Electrical and Electronics Enginering Workshop</t>
+  </si>
+  <si>
+    <t>Guidance and counselling</t>
+  </si>
+  <si>
+    <t>Tenical Drawing Room</t>
+  </si>
+  <si>
+    <t>Student Center</t>
+  </si>
+  <si>
+    <t>CA Office</t>
+  </si>
+  <si>
+    <t>TV Shed</t>
+  </si>
+  <si>
+    <t>TV Hall</t>
+  </si>
+  <si>
+    <t>Mechanical Enginering lab/LR 18</t>
+  </si>
+  <si>
+    <t>Mechanical Enginering lab/LR 19</t>
+  </si>
+  <si>
+    <t>LR7</t>
+  </si>
+  <si>
+    <t>LR6</t>
+  </si>
+  <si>
+    <t>LR15</t>
+  </si>
+  <si>
+    <t>LR9</t>
+  </si>
+  <si>
+    <t>LR10</t>
+  </si>
+  <si>
+    <t>LR12</t>
+  </si>
+  <si>
+    <t>LR 9</t>
+  </si>
+  <si>
+    <t>LR 10</t>
+  </si>
+  <si>
+    <t>LR 12</t>
+  </si>
+  <si>
+    <t>MUT TVET INSTITUTE</t>
+  </si>
+  <si>
+    <t>DH3A</t>
+  </si>
+  <si>
+    <t>DH3B</t>
+  </si>
+  <si>
+    <t>DH4A</t>
+  </si>
+  <si>
+    <t>DH4B</t>
+  </si>
+  <si>
+    <t>MOUNT KENYA Hostel</t>
+  </si>
+  <si>
+    <t>Basement</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Electronics Laborotary/LR 17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +481,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -198,7 +535,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,9 +567,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +602,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,14 +778,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,104 +814,2184 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>-0.71653476996674603</v>
+      </c>
+      <c r="F2">
+        <v>37.147100635342298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>-0.71662068195393702</v>
+      </c>
+      <c r="F3">
+        <v>37.146905177654801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>-0.71623858995784695</v>
+      </c>
+      <c r="F4">
+        <v>37.147261999763003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>-0.71613795412689996</v>
+      </c>
+      <c r="F5">
+        <v>37.147190433619699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>-0.71589776640386305</v>
+      </c>
+      <c r="F6">
+        <v>37.147092321114599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-0.71589776640386305</v>
+      </c>
+      <c r="F7">
+        <v>37.147092321114599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-0.71589776640386305</v>
+      </c>
+      <c r="F8">
+        <v>37.147092321114599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-0.71589776640386305</v>
+      </c>
+      <c r="F9">
+        <v>37.147092321114599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>-0.71589776640386305</v>
+      </c>
+      <c r="F10">
+        <v>37.147092321114599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>-0.71609848666087905</v>
+      </c>
+      <c r="F11">
+        <v>37.147417107347103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>-0.71608044439089302</v>
+      </c>
+      <c r="F12">
+        <v>37.147475749304199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>-0.71570832255387296</v>
+      </c>
+      <c r="F13">
+        <v>37.147511836660499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>-0.71572185425747903</v>
+      </c>
+      <c r="F14">
+        <v>37.147251331043698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>-0.71620110207258403</v>
+      </c>
+      <c r="F15">
+        <v>37.147579500462797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>-0.71620110207258403</v>
+      </c>
+      <c r="F16">
+        <v>37.147579500462797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>-0.71620110207258403</v>
+      </c>
+      <c r="F17">
+        <v>37.147579500462797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>-0.71620110207258403</v>
+      </c>
+      <c r="F18">
+        <v>37.147579500462797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>-0.71620110207258403</v>
+      </c>
+      <c r="F19">
+        <v>37.147579500462797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>-0.71620110207258403</v>
+      </c>
+      <c r="F20">
+        <v>37.147579500462797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>-1.105432</v>
-      </c>
-      <c r="F2">
-        <v>37.013876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>-0.71620110207258403</v>
+      </c>
+      <c r="F21">
+        <v>37.147579500462797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="E3">
-        <v>-1.10521</v>
-      </c>
-      <c r="F3">
-        <v>37.01364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>-0.71617291102632397</v>
+      </c>
+      <c r="F22">
+        <v>37.147688890267297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>-1.10498</v>
-      </c>
-      <c r="F4">
-        <v>37.01422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>-1.10571</v>
-      </c>
-      <c r="F5">
-        <v>37.01401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>-1.106</v>
-      </c>
-      <c r="F6">
-        <v>37.0135</v>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>-0.71564284382246701</v>
+      </c>
+      <c r="F23">
+        <v>37.146863452924997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>-0.71573939581102497</v>
+      </c>
+      <c r="F24">
+        <v>37.147603742602001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>-0.71573939581102497</v>
+      </c>
+      <c r="F25">
+        <v>37.147603742602001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>-0.71573939581102497</v>
+      </c>
+      <c r="F26">
+        <v>37.147603742602001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>-0.71573939581102497</v>
+      </c>
+      <c r="F27">
+        <v>37.147603742602001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>-0.71573939581102497</v>
+      </c>
+      <c r="F28">
+        <v>37.147603742602001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>-0.71573939581102497</v>
+      </c>
+      <c r="F29">
+        <v>37.147603742602001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>-0.71573939581102497</v>
+      </c>
+      <c r="F30">
+        <v>37.147603742602001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>-0.71573939581102497</v>
+      </c>
+      <c r="F31">
+        <v>37.147603742602001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>-0.71544169382953704</v>
+      </c>
+      <c r="F32">
+        <v>37.147768698455998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>-0.71544169382953704</v>
+      </c>
+      <c r="F33">
+        <v>37.147768698455998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>-0.71544169382953704</v>
+      </c>
+      <c r="F34">
+        <v>37.147768698455998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>-0.71544169382953704</v>
+      </c>
+      <c r="F35">
+        <v>37.147768698455998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F36">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F37">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F38">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F39">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F40">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F41">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F42">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F43">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F44">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F45">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F46">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F47">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F48">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F49">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F50">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F51">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F52">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F53">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F54">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>-0.71490529381969203</v>
+      </c>
+      <c r="F55">
+        <v>37.148199863553202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>-0.716537652370977</v>
+      </c>
+      <c r="F56">
+        <v>37.148848877212203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F57">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F58">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F59">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F60">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F61">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F62">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F63">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F64">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F65">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F66">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F67">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F68">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F69">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F70">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F71">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>-0.71549131082946504</v>
+      </c>
+      <c r="F72">
+        <v>37.148669250128101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F73">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F74">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F75">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F76">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F77">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F78">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F79">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F80">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F81">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F82">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>-0.71591087234807704</v>
+      </c>
+      <c r="F83">
+        <v>37.149259492873298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84">
+        <v>-0.71608534667340795</v>
+      </c>
+      <c r="F84">
+        <v>37.149462429943597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85">
+        <v>-0.71615741215366802</v>
+      </c>
+      <c r="F85">
+        <v>37.149593295904701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86">
+        <v>-0.71632430063312702</v>
+      </c>
+      <c r="F86">
+        <v>37.149767783863602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>-0.71645705282582395</v>
+      </c>
+      <c r="F87">
+        <v>37.1500314123941</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>-0.71642860592770496</v>
+      </c>
+      <c r="F88">
+        <v>37.149428291007801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>-0.71658221917783904</v>
+      </c>
+      <c r="F89">
+        <v>37.149388462231798</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>-0.71615930861634103</v>
+      </c>
+      <c r="F90">
+        <v>37.149069832065202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>-0.71630818072341695</v>
+      </c>
+      <c r="F91">
+        <v>37.148928534756799</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>-0.71647127627446305</v>
+      </c>
+      <c r="F92">
+        <v>37.1490195719472</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>-0.71627973382601096</v>
+      </c>
+      <c r="F93">
+        <v>37.148489469961397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>-0.71643145061915803</v>
+      </c>
+      <c r="F94">
+        <v>37.148362397212502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" t="s">
+        <v>109</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95">
+        <v>-0.71619723781719102</v>
+      </c>
+      <c r="F95">
+        <v>37.148374725164402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96">
+        <v>-0.71598902818724397</v>
+      </c>
+      <c r="F96">
+        <v>37.148180839883402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97">
+        <v>-0.71598902818724397</v>
+      </c>
+      <c r="F97">
+        <v>37.148180839883402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>-0.71598902818724397</v>
+      </c>
+      <c r="F98">
+        <v>37.148180839883402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>-0.71598902818724397</v>
+      </c>
+      <c r="F99">
+        <v>37.148180839883402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>-0.71598902818724397</v>
+      </c>
+      <c r="F100">
+        <v>37.148180839883402</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>-0.71600514809772997</v>
+      </c>
+      <c r="F101">
+        <v>37.148013938367697</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102">
+        <v>-0.71600514809772997</v>
+      </c>
+      <c r="F102">
+        <v>37.148013938367697</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>-0.71600514809772997</v>
+      </c>
+      <c r="F103">
+        <v>37.148013938367697</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>-0.71615022728965005</v>
+      </c>
+      <c r="F104">
+        <v>37.148106872166203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" t="s">
+        <v>127</v>
+      </c>
+      <c r="E105">
+        <v>-0.71572965700575597</v>
+      </c>
+      <c r="F105">
+        <v>37.150535786756002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106">
+        <v>-0.71572965700575597</v>
+      </c>
+      <c r="F106">
+        <v>37.150535786756002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107" t="s">
+        <v>127</v>
+      </c>
+      <c r="E107">
+        <v>-0.71572965700575597</v>
+      </c>
+      <c r="F107">
+        <v>37.150535786756002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108">
+        <v>-0.71572965700575597</v>
+      </c>
+      <c r="F108">
+        <v>37.150535786756002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>-0.71605490565445995</v>
+      </c>
+      <c r="F109">
+        <v>37.149402336855303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>-0.71605490565445995</v>
+      </c>
+      <c r="F110">
+        <v>37.149402336855303</v>
       </c>
     </row>
   </sheetData>

--- a/campus-room-finder/rooms.xlsx
+++ b/campus-room-finder/rooms.xlsx
@@ -102,9 +102,6 @@
     <t xml:space="preserve">Resturant </t>
   </si>
   <si>
-    <t xml:space="preserve"> Hospitality Store</t>
-  </si>
-  <si>
     <t>SHTM Examination Office</t>
   </si>
   <si>
@@ -480,9 +477,6 @@
     <t>PostGraduate Seminar room 5</t>
   </si>
   <si>
-    <t xml:space="preserve"> Registrar ( Finance, Planning and Development)</t>
-  </si>
-  <si>
     <t>Registrar ( Academic, Research and Student Affairs)</t>
   </si>
   <si>
@@ -514,6 +508,12 @@
   </si>
   <si>
     <t>Council Chambers</t>
+  </si>
+  <si>
+    <t>Hospitality Store</t>
+  </si>
+  <si>
+    <t>Registrar ( Finance, Planning and Development)</t>
   </si>
 </sst>
 </file>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,19 +921,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>-0.71653476996674603</v>
+        <v>-0.71620110207258403</v>
       </c>
       <c r="F2">
-        <v>37.147100635342298</v>
+        <v>37.147579500462797</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -941,19 +941,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>87</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-0.71662068195393702</v>
+        <v>-0.71642860592770496</v>
       </c>
       <c r="F3">
-        <v>37.146905177654801</v>
+        <v>37.149428291007801</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,19 +961,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4">
-        <v>-0.71623858995784695</v>
+        <v>-0.71544169382953704</v>
       </c>
       <c r="F4">
-        <v>37.147261999763003</v>
+        <v>37.147768698455998</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,19 +981,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-0.71613795412689996</v>
+        <v>-0.71544169382953704</v>
       </c>
       <c r="F5">
-        <v>37.147190433619699</v>
+        <v>37.147768698455998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1001,19 +1001,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-0.71589776640386305</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F6">
-        <v>37.147092321114599</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,13 +1021,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
       <c r="E7">
         <v>-0.71589776640386305</v>
@@ -1041,19 +1041,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>-0.71589776640386305</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F8">
-        <v>37.147092321114599</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1061,19 +1061,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-0.71589776640386305</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F9">
-        <v>37.147092321114599</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,19 +1081,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-0.71589776640386305</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F10">
-        <v>37.147092321114599</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1101,19 +1101,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>-0.71609848666087905</v>
+        <v>-0.71632430063312702</v>
       </c>
       <c r="F11">
-        <v>37.147417107347103</v>
+        <v>37.149767783863602</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,19 +1121,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>-0.71608044439089302</v>
+        <v>-0.71643145061915803</v>
       </c>
       <c r="F12">
-        <v>37.147475749304199</v>
+        <v>37.148362397212502</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1141,19 +1141,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>-0.71570832255387296</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F13">
-        <v>37.147511836660499</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,19 +1161,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>-0.71572185425747903</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F14">
-        <v>37.147251331043698</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,19 +1181,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>-0.71620110207258403</v>
+        <v>-0.71589776640386305</v>
       </c>
       <c r="F15">
-        <v>37.147579500462797</v>
+        <v>37.147092321114599</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,19 +1201,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>-0.71620110207258403</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F16">
-        <v>37.147579500462797</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,19 +1221,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17">
-        <v>-0.71620110207258403</v>
+        <v>-0.71573939581102497</v>
       </c>
       <c r="F17">
-        <v>37.147579500462797</v>
+        <v>37.147603742602001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1241,19 +1241,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>-0.71620110207258403</v>
+        <v>-0.71573939581102497</v>
       </c>
       <c r="F18">
-        <v>37.147579500462797</v>
+        <v>37.147603742602001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,19 +1261,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>-0.71620110207258403</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F19">
-        <v>37.147579500462797</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,19 +1281,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>-0.71620110207258403</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F20">
-        <v>37.147579500462797</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,19 +1301,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>-0.71620110207258403</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F21">
-        <v>37.147579500462797</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,19 +1321,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>-0.71617291102632397</v>
+        <v>-0.71544169382953704</v>
       </c>
       <c r="F22">
-        <v>37.147688890267297</v>
+        <v>37.147768698455998</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,19 +1341,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23">
-        <v>-0.71564284382246701</v>
+        <v>-0.71620110207258403</v>
       </c>
       <c r="F23">
-        <v>37.146863452924997</v>
+        <v>37.147579500462797</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,19 +1361,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>-0.71573939581102497</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F24">
-        <v>37.147603742602001</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,19 +1381,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>-0.71573939581102497</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F25">
-        <v>37.147603742602001</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,19 +1398,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26">
-        <v>-0.71573939581102497</v>
+        <v>-0.71577673700831701</v>
       </c>
       <c r="F26">
-        <v>37.147603742602001</v>
+        <v>37.146805147119601</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1421,19 +1418,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>-0.71573939581102497</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F27">
-        <v>37.147603742602001</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1441,19 +1438,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>-0.71573939581102497</v>
+        <v>-0.71544169382953704</v>
       </c>
       <c r="F28">
-        <v>37.147603742602001</v>
+        <v>37.147768698455998</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,19 +1458,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>-0.71573939581102497</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F29">
-        <v>37.147603742602001</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,19 +1478,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>-0.71573939581102497</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F30">
-        <v>37.147603742602001</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,19 +1498,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31">
-        <v>-0.71573939581102497</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F31">
-        <v>37.147603742602001</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1521,19 +1518,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>-0.71544169382953704</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F32">
-        <v>37.147768698455998</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1541,19 +1538,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>-0.71544169382953704</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F33">
-        <v>37.147768698455998</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,19 +1558,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>-0.71544169382953704</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F34">
-        <v>37.147768698455998</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1581,19 +1578,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
       </c>
       <c r="E35">
-        <v>-0.71544169382953704</v>
+        <v>-0.71572965700575597</v>
       </c>
       <c r="F35">
-        <v>37.147768698455998</v>
+        <v>37.150535786756002</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,19 +1598,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="E36">
-        <v>-0.71490529381969203</v>
+        <v>-0.71572965700575597</v>
       </c>
       <c r="F36">
-        <v>37.148199863553202</v>
+        <v>37.150535786756002</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1621,19 +1618,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="E37">
-        <v>-0.71490529381969203</v>
+        <v>-0.71572965700575597</v>
       </c>
       <c r="F37">
-        <v>37.148199863553202</v>
+        <v>37.150535786756002</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,19 +1638,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="E38">
-        <v>-0.71490529381969203</v>
+        <v>-0.71572965700575597</v>
       </c>
       <c r="F38">
-        <v>37.148199863553202</v>
+        <v>37.150535786756002</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,19 +1658,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39">
-        <v>-0.71490529381969203</v>
+        <v>-0.71613795412689996</v>
       </c>
       <c r="F39">
-        <v>37.148199863553202</v>
+        <v>37.147190433619699</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1681,19 +1678,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>-0.71490529381969203</v>
+        <v>-0.71573939581102497</v>
       </c>
       <c r="F40">
-        <v>37.148199863553202</v>
+        <v>37.147603742602001</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,19 +1698,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>-0.71490529381969203</v>
+        <v>-0.71572185425747903</v>
       </c>
       <c r="F41">
-        <v>37.148199863553202</v>
+        <v>37.147251331043698</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1721,19 +1718,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>-0.71490529381969203</v>
+        <v>-0.71630818072341695</v>
       </c>
       <c r="F42">
-        <v>37.148199863553202</v>
+        <v>37.148928534756799</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,19 +1738,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
       </c>
       <c r="E43">
-        <v>-0.71490529381969203</v>
+        <v>-0.71617291102632397</v>
       </c>
       <c r="F43">
-        <v>37.148199863553202</v>
+        <v>37.147688890267297</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1761,19 +1758,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
+        <v>121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>-0.71490529381969203</v>
+        <v>-0.71598902818724397</v>
       </c>
       <c r="F44">
-        <v>37.148199863553202</v>
+        <v>37.148180839883402</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1781,19 +1778,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>-0.71490529381969203</v>
+        <v>-0.71573939581102497</v>
       </c>
       <c r="F45">
-        <v>37.148199863553202</v>
+        <v>37.147603742602001</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,19 +1798,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>-0.71490529381969203</v>
+        <v>-0.71608044439089302</v>
       </c>
       <c r="F46">
-        <v>37.148199863553202</v>
+        <v>37.147475749304199</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,19 +1818,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>-0.71490529381969203</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F47">
-        <v>37.148199863553202</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,19 +1838,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>-0.71490529381969203</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F48">
-        <v>37.148199863553202</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1861,19 +1858,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49">
-        <v>-0.71490529381969203</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F49">
-        <v>37.148199863553202</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,19 +1878,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50">
-        <v>-0.71490529381969203</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F50">
-        <v>37.148199863553202</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1901,19 +1898,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>-0.71490529381969203</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F51">
-        <v>37.148199863553202</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1921,19 +1918,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>-0.71490529381969203</v>
+        <v>-0.71605490565445995</v>
       </c>
       <c r="F52">
-        <v>37.148199863553202</v>
+        <v>37.149402336855303</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,19 +1938,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>-0.71490529381969203</v>
+        <v>-0.71605490565445995</v>
       </c>
       <c r="F53">
-        <v>37.148199863553202</v>
+        <v>37.149402336855303</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1961,19 +1958,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
       </c>
       <c r="E54">
-        <v>-0.71490529381969203</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F54">
-        <v>37.148199863553202</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,19 +1978,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>-0.71490529381969203</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F55">
-        <v>37.148199863553202</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2001,19 +1998,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56">
-        <v>-0.716537652370977</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F56">
-        <v>37.148848877212203</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,19 +2018,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57">
-        <v>-0.71549131082946504</v>
+        <v>-0.71573939581102497</v>
       </c>
       <c r="F57">
-        <v>37.148669250128101</v>
+        <v>37.147603742602001</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,19 +2038,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
+        <v>88</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>-0.71549131082946504</v>
+        <v>-0.71647127627446305</v>
       </c>
       <c r="F58">
-        <v>37.148669250128101</v>
+        <v>37.1490195719472</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2061,19 +2058,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59">
-        <v>-0.71549131082946504</v>
+        <v>-0.71564284382246701</v>
       </c>
       <c r="F59">
-        <v>37.148669250128101</v>
+        <v>37.146863452924997</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,10 +2078,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -2101,13 +2098,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>-0.71549131082946504</v>
@@ -2121,19 +2118,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>-0.71549131082946504</v>
+        <v>-0.71589776640386305</v>
       </c>
       <c r="F62">
-        <v>37.148669250128101</v>
+        <v>37.147092321114599</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,19 +2138,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>-0.71549131082946504</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F63">
-        <v>37.148669250128101</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2161,19 +2158,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>-0.71549131082946504</v>
+        <v>-0.71573939581102497</v>
       </c>
       <c r="F64">
-        <v>37.148669250128101</v>
+        <v>37.147603742602001</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,19 +2178,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65">
-        <v>-0.71549131082946504</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F65">
-        <v>37.148669250128101</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2201,19 +2198,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
       </c>
       <c r="E66">
-        <v>-0.71549131082946504</v>
+        <v>-0.71567213902022997</v>
       </c>
       <c r="F66">
-        <v>37.148669250128101</v>
+        <v>37.1467173047809</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2221,19 +2218,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
       </c>
       <c r="E67">
-        <v>-0.71549131082946504</v>
+        <v>-0.71623858995784695</v>
       </c>
       <c r="F67">
-        <v>37.148669250128101</v>
+        <v>37.147261999763003</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,19 +2238,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
       </c>
       <c r="E68">
-        <v>-0.71549131082946504</v>
+        <v>-0.71620110207258403</v>
       </c>
       <c r="F68">
-        <v>37.148669250128101</v>
+        <v>37.147579500462797</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,19 +2258,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>-0.71549131082946504</v>
+        <v>-0.71620110207258403</v>
       </c>
       <c r="F69">
-        <v>37.148669250128101</v>
+        <v>37.147579500462797</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,19 +2278,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>-0.71549131082946504</v>
+        <v>-0.71620110207258403</v>
       </c>
       <c r="F70">
-        <v>37.148669250128101</v>
+        <v>37.147579500462797</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2301,19 +2298,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>-0.71549131082946504</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F71">
-        <v>37.148669250128101</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,19 +2318,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
       </c>
       <c r="E72">
-        <v>-0.71549131082946504</v>
+        <v>-0.71570832255387296</v>
       </c>
       <c r="F72">
-        <v>37.148669250128101</v>
+        <v>37.147511836660499</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2341,19 +2338,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73">
-        <v>-0.71591087234807704</v>
+        <v>-0.71600514809772997</v>
       </c>
       <c r="F73">
-        <v>37.149259492873298</v>
+        <v>37.148013938367697</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,19 +2358,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74">
-        <v>-0.71591087234807704</v>
+        <v>-0.71600514809772997</v>
       </c>
       <c r="F74">
-        <v>37.149259492873298</v>
+        <v>37.148013938367697</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,19 +2378,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75">
-        <v>-0.71591087234807704</v>
+        <v>-0.71598902818724397</v>
       </c>
       <c r="F75">
-        <v>37.149259492873298</v>
+        <v>37.148180839883402</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2401,19 +2398,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76">
-        <v>-0.71591087234807704</v>
+        <v>-0.71598902818724397</v>
       </c>
       <c r="F76">
-        <v>37.149259492873298</v>
+        <v>37.148180839883402</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2421,19 +2418,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>-0.71591087234807704</v>
+        <v>-0.71598902818724397</v>
       </c>
       <c r="F77">
-        <v>37.149259492873298</v>
+        <v>37.148180839883402</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,19 +2438,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78">
-        <v>-0.71591087234807704</v>
+        <v>-0.71600514809772997</v>
       </c>
       <c r="F78">
-        <v>37.149259492873298</v>
+        <v>37.148013938367697</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2461,19 +2458,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79">
-        <v>-0.71591087234807704</v>
+        <v>-0.71575537818272394</v>
       </c>
       <c r="F79">
-        <v>37.149259492873298</v>
+        <v>37.146753423697803</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,19 +2478,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
       </c>
       <c r="E80">
-        <v>-0.71591087234807704</v>
+        <v>-0.71575461051104405</v>
       </c>
       <c r="F80">
-        <v>37.149259492873298</v>
+        <v>37.146763572883003</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2501,19 +2498,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
       </c>
       <c r="E81">
-        <v>-0.71591087234807704</v>
+        <v>-0.71598902818724397</v>
       </c>
       <c r="F81">
-        <v>37.149259492873298</v>
+        <v>37.148180839883402</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2521,19 +2518,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>74</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
       </c>
       <c r="E82">
-        <v>-0.71591087234807704</v>
+        <v>-0.71658221917783904</v>
       </c>
       <c r="F82">
-        <v>37.149259492873298</v>
+        <v>37.149388462231798</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2541,19 +2538,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>-0.71591087234807704</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F83">
-        <v>37.149259492873298</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2561,19 +2558,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84">
-        <v>-0.71608534667340795</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F84">
-        <v>37.149462429943597</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,19 +2578,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>-0.71615741215366802</v>
+        <v>-0.71589776640386305</v>
       </c>
       <c r="F85">
-        <v>37.149593295904701</v>
+        <v>37.147092321114599</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,19 +2598,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>-0.71632430063312702</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F86">
-        <v>37.149767783863602</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2621,19 +2618,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
       <c r="E87">
-        <v>-0.71645705282582395</v>
+        <v>-0.71653476996674603</v>
       </c>
       <c r="F87">
-        <v>37.1500314123941</v>
+        <v>37.147100635342298</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2641,19 +2638,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>-0.71642860592770496</v>
+        <v>-0.71662068195393702</v>
       </c>
       <c r="F88">
-        <v>37.149428291007801</v>
+        <v>37.146905177654801</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2661,19 +2658,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
       </c>
       <c r="E89">
-        <v>-0.71658221917783904</v>
+        <v>-0.71615022728965005</v>
       </c>
       <c r="F89">
-        <v>37.149388462231798</v>
+        <v>37.148106872166203</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2681,19 +2678,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
       </c>
       <c r="E90">
-        <v>-0.71615930861634103</v>
+        <v>-0.71573939581102497</v>
       </c>
       <c r="F90">
-        <v>37.149069832065202</v>
+        <v>37.147603742602001</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2701,19 +2698,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
       </c>
       <c r="E91">
-        <v>-0.71630818072341695</v>
+        <v>-0.71573939581102497</v>
       </c>
       <c r="F91">
-        <v>37.148928534756799</v>
+        <v>37.147603742602001</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2721,19 +2718,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>-0.71647127627446305</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F92">
-        <v>37.1490195719472</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2741,19 +2738,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>-0.71627973382601096</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F93">
-        <v>37.148489469961397</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,19 +2758,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>-0.71643145061915803</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F94">
-        <v>37.148362397212502</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2781,19 +2778,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>-0.71619723781719102</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F95">
-        <v>37.148374725164402</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2801,19 +2798,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
       <c r="E96">
-        <v>-0.71598902818724397</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F96">
-        <v>37.148180839883402</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2821,19 +2818,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97">
-        <v>-0.71598902818724397</v>
+        <v>-0.71645705282582395</v>
       </c>
       <c r="F97">
-        <v>37.148180839883402</v>
+        <v>37.1500314123941</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2841,19 +2838,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
-      </c>
-      <c r="D98" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
       </c>
       <c r="E98">
-        <v>-0.71598902818724397</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F98">
-        <v>37.148180839883402</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2861,19 +2858,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>-0.71598902818724397</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F99">
-        <v>37.148180839883402</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2881,19 +2878,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
       <c r="E100">
-        <v>-0.71598902818724397</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F100">
-        <v>37.148180839883402</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2901,19 +2898,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>-0.71600514809772997</v>
+        <v>-0.71549131082946504</v>
       </c>
       <c r="F101">
-        <v>37.148013938367697</v>
+        <v>37.148669250128101</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2921,19 +2918,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102">
-        <v>-0.71600514809772997</v>
+        <v>-0.71589776640386305</v>
       </c>
       <c r="F102">
-        <v>37.148013938367697</v>
+        <v>37.147092321114599</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2941,19 +2938,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>108</v>
-      </c>
-      <c r="D103" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>-0.71600514809772997</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F103">
-        <v>37.148013938367697</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,19 +2958,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C104" t="s">
-        <v>109</v>
-      </c>
-      <c r="D104" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>-0.71615022728965005</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F104">
-        <v>37.148106872166203</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2981,19 +2978,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
-      </c>
-      <c r="D105" t="s">
-        <v>115</v>
+        <v>135</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>-0.71572965700575597</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F105">
-        <v>37.150535786756002</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3001,19 +2998,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="C106" t="s">
-        <v>114</v>
-      </c>
-      <c r="D106" t="s">
-        <v>115</v>
+        <v>135</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>-0.71572965700575597</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F106">
-        <v>37.150535786756002</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3021,19 +3018,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="E107">
-        <v>-0.71572965700575597</v>
+        <v>-0.71620110207258403</v>
       </c>
       <c r="F107">
-        <v>37.150535786756002</v>
+        <v>37.147579500462797</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3041,19 +3038,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C108" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D108" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>-0.71572965700575597</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F108">
-        <v>37.150535786756002</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,19 +3058,19 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C109" t="s">
-        <v>74</v>
-      </c>
-      <c r="D109" t="s">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>-0.71605490565445995</v>
+        <v>-0.71591087234807704</v>
       </c>
       <c r="F109">
-        <v>37.149402336855303</v>
+        <v>37.149259492873298</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3081,19 +3078,19 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110">
-        <v>-0.71605490565445995</v>
+        <v>-0.71609848666087905</v>
       </c>
       <c r="F110">
-        <v>37.149402336855303</v>
+        <v>37.147417107347103</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3101,19 +3098,19 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>-0.71575537818272394</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F111">
-        <v>37.146753423697803</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3121,19 +3118,19 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
-      </c>
-      <c r="D112" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>-0.71575461051104405</v>
+        <v>-0.71555365262091997</v>
       </c>
       <c r="F112">
-        <v>37.146763572883003</v>
+        <v>37.148409524082503</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,19 +3138,19 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
       </c>
       <c r="E113">
-        <v>-0.71567213902022997</v>
+        <v>-0.71620110207258403</v>
       </c>
       <c r="F113">
-        <v>37.1467173047809</v>
+        <v>37.147579500462797</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3161,19 +3158,19 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114">
-        <v>-0.71577673700831701</v>
+        <v>-0.71608534667340795</v>
       </c>
       <c r="F114">
-        <v>37.146805147119601</v>
+        <v>37.149462429943597</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3181,19 +3178,19 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115">
-        <v>-0.71555365262091997</v>
+        <v>-0.71615741215366802</v>
       </c>
       <c r="F115">
-        <v>37.148409524082503</v>
+        <v>37.149593295904701</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3201,13 +3198,13 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C116" t="s">
-        <v>136</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
       </c>
       <c r="E116">
         <v>-0.71555365262091997</v>
@@ -3221,19 +3218,19 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
       </c>
       <c r="E117">
-        <v>-0.71555365262091997</v>
+        <v>-0.71627973382601096</v>
       </c>
       <c r="F117">
-        <v>37.148409524082503</v>
+        <v>37.148489469961397</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3241,13 +3238,13 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>-0.71555365262091997</v>
@@ -3261,13 +3258,13 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
         <v>-0.71555365262091997</v>
@@ -3281,19 +3278,19 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C120" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F120">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3301,19 +3298,19 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="C121" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F121">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3321,19 +3318,19 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="C122" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F122">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3341,19 +3338,19 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E123">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F123">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3361,19 +3358,19 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C124" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F124">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3381,19 +3378,19 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="C125" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
       <c r="E125">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F125">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3401,19 +3398,19 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="C126" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
       <c r="E126">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F126">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3421,19 +3418,19 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="C127" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D127">
         <v>2</v>
       </c>
       <c r="E127">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F127">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3441,19 +3438,19 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="C128" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D128">
         <v>3</v>
       </c>
       <c r="E128">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F128">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3461,19 +3458,19 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="C129" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D129">
         <v>3</v>
       </c>
       <c r="E129">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F129">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3481,19 +3478,19 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="C130" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D130">
         <v>3</v>
       </c>
       <c r="E130">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F130">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3501,19 +3498,19 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="C131" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D131">
         <v>3</v>
       </c>
       <c r="E131">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F131">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3521,19 +3518,19 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="C132" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F132">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3541,19 +3538,19 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="C133" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F133">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3561,19 +3558,19 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F134">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3581,19 +3578,19 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F135">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3601,19 +3598,19 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="C136" t="s">
-        <v>136</v>
-      </c>
-      <c r="D136">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
       </c>
       <c r="E136">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F136">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3621,19 +3618,19 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="C137" t="s">
-        <v>136</v>
-      </c>
-      <c r="D137">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
       </c>
       <c r="E137">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F137">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3641,19 +3638,19 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="C138" t="s">
-        <v>136</v>
-      </c>
-      <c r="D138">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
       </c>
       <c r="E138">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F138">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3661,19 +3658,19 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>136</v>
-      </c>
-      <c r="D139">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
       </c>
       <c r="E139">
-        <v>-0.71555365262091997</v>
+        <v>-0.71490529381969203</v>
       </c>
       <c r="F139">
-        <v>37.148409524082503</v>
+        <v>37.148199863553202</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3681,19 +3678,19 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="C140" t="s">
-        <v>136</v>
-      </c>
-      <c r="D140">
-        <v>5</v>
+        <v>92</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
       </c>
       <c r="E140">
-        <v>-0.71555365262091997</v>
+        <v>-0.716537652370977</v>
       </c>
       <c r="F140">
-        <v>37.148409524082503</v>
+        <v>37.148848877212203</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3701,19 +3698,19 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="C141" t="s">
-        <v>136</v>
-      </c>
-      <c r="D141">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
       </c>
       <c r="E141">
-        <v>-0.71555365262091997</v>
+        <v>-0.71619723781719102</v>
       </c>
       <c r="F141">
-        <v>37.148409524082503</v>
+        <v>37.148374725164402</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3721,10 +3718,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C142" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D142">
         <v>5</v>
@@ -3741,19 +3738,25 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>164</v>
-      </c>
-      <c r="D143">
-        <v>5</v>
+        <v>89</v>
+      </c>
+      <c r="C143" t="s">
+        <v>89</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>-0.71555365262091997</v>
+        <v>-0.71615930861634103</v>
       </c>
       <c r="F143">
-        <v>37.148409524082503</v>
+        <v>37.149069832065202</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B3:F143">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>